--- a/ogserver/src/data/templates/salesorder-template.xlsx
+++ b/ogserver/src/data/templates/salesorder-template.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="45" windowWidth="23895" windowHeight="9975"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales Order" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
